--- a/Sessie sheet (testcases) - Back-end.xlsx
+++ b/Sessie sheet (testcases) - Back-end.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Casus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68369F0-9B50-40FD-BFA7-EDC268F0CC7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D965EA8-8DD1-4042-9A3D-C8B82CAF076D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="186">
   <si>
     <t>Session sheet #</t>
   </si>
@@ -1244,6 +1244,12 @@
   </si>
   <si>
     <t>&lt;link naar TC7&gt;</t>
+  </si>
+  <si>
+    <t>Front-end als back-end werkt en kan op ingelogd worden</t>
+  </si>
+  <si>
+    <t>niets</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1333,6 +1339,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,7 +1470,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1501,33 +1519,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1564,12 +1555,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1584,6 +1569,63 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1961,7 +2003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2038,7 +2080,7 @@
       <c r="B7" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
@@ -2052,13 +2094,13 @@
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="10"/>
     </row>
   </sheetData>
@@ -2081,7 +2123,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2122,52 +2166,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="40"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="47">
+        <v>43369.572916666664</v>
+      </c>
+      <c r="C12" s="48"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="38"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -2177,10 +2225,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -2190,70 +2238,70 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="38"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="40"/>
+      <c r="B17" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="50"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="21"/>
+      <c r="B18" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="38"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="45"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="24" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2265,8 +2313,8 @@
         <v>28</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="27"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
@@ -2278,8 +2326,8 @@
       <c r="C26" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="27"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
@@ -2289,8 +2337,8 @@
         <v>30</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="27"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="51"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
@@ -2300,8 +2348,8 @@
         <v>31</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="27"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="51"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
@@ -2313,8 +2361,8 @@
       <c r="C29" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="27"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="51"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
@@ -2324,8 +2372,8 @@
         <v>49</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="27"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="51"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
@@ -2337,8 +2385,8 @@
       <c r="C31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="27"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="51"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
@@ -2348,8 +2396,8 @@
         <v>28</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="27"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="51"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
@@ -2361,8 +2409,8 @@
       <c r="C33" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="27"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="51"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
@@ -2372,8 +2420,8 @@
         <v>44</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="27"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="51"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
@@ -2383,8 +2431,8 @@
         <v>45</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="27"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="51"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
@@ -2396,8 +2444,8 @@
       <c r="C36" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="27"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="51"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
@@ -2407,8 +2455,8 @@
         <v>49</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="27"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="51"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
@@ -2420,8 +2468,8 @@
       <c r="C38" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="27"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="51"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
@@ -2431,8 +2479,8 @@
         <v>28</v>
       </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="27"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="51"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
@@ -2444,8 +2492,8 @@
       <c r="C40" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="27"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="51"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
@@ -2455,57 +2503,57 @@
         <v>49</v>
       </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="27"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="51"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="28">
+      <c r="A42" s="19">
         <v>18</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="52"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B45" s="17"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="35">
+      <c r="B48" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="28" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2514,6 +2562,11 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
@@ -2522,11 +2575,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -2583,52 +2631,52 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="40"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -2638,10 +2686,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -2651,70 +2699,70 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="38"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="44"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="38"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="45"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="24" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2727,7 +2775,7 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="27"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
@@ -2740,7 +2788,7 @@
         <v>84</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26" s="27"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
@@ -2751,7 +2799,7 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="27"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
@@ -2762,7 +2810,7 @@
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="27"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
@@ -2775,7 +2823,7 @@
         <v>66</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="27"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
@@ -2786,7 +2834,7 @@
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="27"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
@@ -2799,7 +2847,7 @@
         <v>71</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="27"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
@@ -2810,7 +2858,7 @@
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="27"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
@@ -2823,7 +2871,7 @@
         <v>80</v>
       </c>
       <c r="D33" s="13"/>
-      <c r="E33" s="27"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
@@ -2834,7 +2882,7 @@
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="27"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
@@ -2845,7 +2893,7 @@
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="27"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
@@ -2858,7 +2906,7 @@
         <v>76</v>
       </c>
       <c r="D36" s="13"/>
-      <c r="E36" s="27"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
@@ -2869,7 +2917,7 @@
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="27"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
@@ -2882,7 +2930,7 @@
         <v>77</v>
       </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="27"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
@@ -2893,7 +2941,7 @@
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="27"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
@@ -2906,7 +2954,7 @@
         <v>78</v>
       </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="27"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
@@ -2917,40 +2965,40 @@
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="27"/>
+      <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="28">
+      <c r="A42" s="19">
         <v>18</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B45" s="17"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="28" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2959,6 +3007,12 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -2966,12 +3020,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{5D9F56E6-0968-4F30-B6EB-219911D5CA1D}">
@@ -3028,52 +3076,52 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="40"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -3083,10 +3131,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -3096,70 +3144,70 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="38"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="44"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="38"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="45"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="24" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3172,7 +3220,7 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="27"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
@@ -3185,7 +3233,7 @@
         <v>88</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26" s="27"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
@@ -3196,7 +3244,7 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="27"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
@@ -3207,7 +3255,7 @@
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="27"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
@@ -3220,7 +3268,7 @@
         <v>159</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="27"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
@@ -3231,7 +3279,7 @@
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="27"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
@@ -3244,7 +3292,7 @@
         <v>150</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="27"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
@@ -3255,7 +3303,7 @@
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="27"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
@@ -3266,7 +3314,7 @@
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="27"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
@@ -3277,7 +3325,7 @@
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="27"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
@@ -3288,7 +3336,7 @@
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="27"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
@@ -3299,7 +3347,7 @@
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="27"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
@@ -3312,7 +3360,7 @@
         <v>156</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="27"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
@@ -3325,7 +3373,7 @@
         <v>158</v>
       </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="27"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
@@ -3336,64 +3384,64 @@
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="27"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28">
+      <c r="A40" s="19">
         <v>16</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="17"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="26" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="26" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="30" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="26" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="28" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3402,6 +3450,12 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -3409,12 +3463,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{C6C35E0C-7BDF-4ED2-ACD1-8D1997A8187E}">
@@ -3473,52 +3521,52 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="40"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -3528,10 +3576,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -3541,70 +3589,70 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="38"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="44"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="38"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="45"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="24" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3617,7 +3665,7 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="27"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
@@ -3630,7 +3678,7 @@
         <v>162</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26" s="27"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
@@ -3641,7 +3689,7 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="27"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
@@ -3652,7 +3700,7 @@
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="27"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
@@ -3665,7 +3713,7 @@
         <v>163</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="27"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
@@ -3676,7 +3724,7 @@
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="27"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
@@ -3687,7 +3735,7 @@
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="27"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
@@ -3700,7 +3748,7 @@
         <v>150</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="27"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
@@ -3711,7 +3759,7 @@
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="27"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
@@ -3722,7 +3770,7 @@
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="27"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
@@ -3733,7 +3781,7 @@
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="27"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
@@ -3744,7 +3792,7 @@
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="27"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
@@ -3755,7 +3803,7 @@
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="27"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
@@ -3768,7 +3816,7 @@
         <v>166</v>
       </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="27"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
@@ -3779,7 +3827,7 @@
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="27"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
@@ -3792,7 +3840,7 @@
         <v>172</v>
       </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="27"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
@@ -3803,7 +3851,7 @@
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="27"/>
+      <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
@@ -3814,7 +3862,7 @@
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="27"/>
+      <c r="E42" s="18"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
@@ -3827,7 +3875,7 @@
         <v>167</v>
       </c>
       <c r="D43" s="13"/>
-      <c r="E43" s="27"/>
+      <c r="E43" s="18"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
@@ -3838,40 +3886,40 @@
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="27"/>
+      <c r="E44" s="18"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="28">
+      <c r="A45" s="19">
         <v>21</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B48" s="17"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="26" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="26" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3879,7 +3927,7 @@
       <c r="A51" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="30" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3887,15 +3935,15 @@
       <c r="A52" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="26" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="28" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3904,6 +3952,12 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -3911,12 +3965,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{7C18AF38-3401-4599-B170-8902010578B1}">
@@ -3978,52 +4026,52 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="40"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -4033,10 +4081,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4046,70 +4094,70 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="38"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="44"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="38"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="45"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="24" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4122,7 +4170,7 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="27"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
@@ -4135,7 +4183,7 @@
         <v>116</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26" s="27"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
@@ -4146,7 +4194,7 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="27"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
@@ -4157,7 +4205,7 @@
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="27"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
@@ -4170,7 +4218,7 @@
         <v>103</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="27"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
@@ -4181,7 +4229,7 @@
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="27"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
@@ -4194,7 +4242,7 @@
         <v>103</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="27"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
@@ -4205,7 +4253,7 @@
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="27"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
@@ -4218,7 +4266,7 @@
         <v>107</v>
       </c>
       <c r="D33" s="13"/>
-      <c r="E33" s="27"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
@@ -4229,7 +4277,7 @@
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="27"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
@@ -4240,7 +4288,7 @@
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="27"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
@@ -4253,7 +4301,7 @@
         <v>109</v>
       </c>
       <c r="D36" s="13"/>
-      <c r="E36" s="27"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
@@ -4264,7 +4312,7 @@
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="27"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
@@ -4277,7 +4325,7 @@
         <v>110</v>
       </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="27"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
@@ -4288,7 +4336,7 @@
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="27"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
@@ -4301,7 +4349,7 @@
         <v>112</v>
       </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="27"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
@@ -4312,86 +4360,86 @@
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="27"/>
+      <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="28">
+      <c r="A42" s="19">
         <v>18</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B45" s="17"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="26" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="26" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="35">
+      <c r="B49" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="26" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="26" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="36"/>
-      <c r="B53" s="37"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="28"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="13"/>
@@ -4401,6 +4449,12 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -4408,12 +4462,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{F1A39055-5B8B-4FA1-BD45-6FC72FBEEC54}">
@@ -4472,52 +4520,52 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="40"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -4527,10 +4575,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4540,70 +4588,70 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="38"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="44"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="38"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="45"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="24" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4616,7 +4664,7 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="27"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
@@ -4629,7 +4677,7 @@
         <v>117</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26" s="27"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
@@ -4640,7 +4688,7 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="27"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
@@ -4651,7 +4699,7 @@
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="27"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
@@ -4664,7 +4712,7 @@
         <v>103</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="27"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
@@ -4675,7 +4723,7 @@
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="27"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
@@ -4688,7 +4736,7 @@
         <v>103</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="27"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
@@ -4701,7 +4749,7 @@
         <v>126</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="27"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
@@ -4712,7 +4760,7 @@
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="27"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
@@ -4725,7 +4773,7 @@
         <v>128</v>
       </c>
       <c r="D34" s="13"/>
-      <c r="E34" s="27"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
@@ -4736,7 +4784,7 @@
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="27"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
@@ -4747,7 +4795,7 @@
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="27"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
@@ -4760,7 +4808,7 @@
         <v>132</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="27"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
@@ -4771,7 +4819,7 @@
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="27"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
@@ -4784,7 +4832,7 @@
         <v>103</v>
       </c>
       <c r="D39" s="13"/>
-      <c r="E39" s="27"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
@@ -4797,7 +4845,7 @@
         <v>126</v>
       </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="27"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
@@ -4808,7 +4856,7 @@
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="27"/>
+      <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
@@ -4821,7 +4869,7 @@
         <v>134</v>
       </c>
       <c r="D42" s="13"/>
-      <c r="E42" s="27"/>
+      <c r="E42" s="18"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
@@ -4832,7 +4880,7 @@
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="27"/>
+      <c r="E43" s="18"/>
     </row>
     <row r="44" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
@@ -4845,82 +4893,82 @@
         <v>103</v>
       </c>
       <c r="D44" s="13"/>
-      <c r="E44" s="27"/>
+      <c r="E44" s="18"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="29">
+      <c r="A45" s="20">
         <v>20</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B48" s="17"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="26" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="26" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="26" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="35">
+      <c r="B52" s="26">
         <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="35">
+      <c r="B53" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="35">
+      <c r="B54" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="34"/>
-      <c r="B55" s="35"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="26"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="36"/>
-      <c r="B56" s="37"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="28"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="13"/>
@@ -4933,6 +4981,12 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -4940,12 +4994,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{509EE8FD-F1D7-4B05-9132-06E8F12D537C}">
@@ -5004,52 +5052,52 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="40"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -5059,10 +5107,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -5075,55 +5123,55 @@
       <c r="B16" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="38"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="44"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="38"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="45"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
@@ -5133,6 +5181,12 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="B15:C15"/>
@@ -5140,12 +5194,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{FB70611E-067D-4070-8718-B9128E2C6116}">

--- a/Sessie sheet (testcases) - Back-end.xlsx
+++ b/Sessie sheet (testcases) - Back-end.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Casus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D965EA8-8DD1-4042-9A3D-C8B82CAF076D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3831373C-0E14-489D-8750-9F55F37AB804}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="196">
   <si>
     <t>Session sheet #</t>
   </si>
@@ -747,9 +747,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Veenendaal</t>
-  </si>
-  <si>
     <t>Het nieuwe hotel is zichtbaar in het overzicht.</t>
   </si>
   <si>
@@ -769,9 +766,6 @@
     </r>
   </si>
   <si>
-    <t>Gebruik het zoekveld om te zoeken naar een hotel in Veenendaal</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Klik op </t>
     </r>
@@ -789,22 +783,6 @@
   </si>
   <si>
     <t>De gegevens van het hotel worden getoond.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verander de Hotel Name door "2!" toe te voegen. Klik op </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Save &amp; Return</t>
-    </r>
   </si>
   <si>
     <t>De hotel naam is aangepast in het overzicht.</t>
@@ -920,6 +898,12 @@
     <t>Het nieuwe kamertype is te boeken.</t>
   </si>
   <si>
+    <t>De gegevens van de hotelkamer worden getoond.</t>
+  </si>
+  <si>
+    <t>Het kamertype is veranderd in het overzicht.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Klik op </t>
     </r>
@@ -932,50 +916,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Delux Room</t>
-    </r>
-  </si>
-  <si>
-    <t>De gegevens van de hotelkamer worden getoond.</t>
-  </si>
-  <si>
-    <t>Hyatt Regency Hotels</t>
-  </si>
-  <si>
-    <t>Gebruik het zoekveld om te zoeken naar hotel Hyatt Regency Hotels</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verander de Room Type naar Studio Premier. Klik op </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Save &amp; Return</t>
-    </r>
-  </si>
-  <si>
-    <t>Het kamertype is veranderd in het overzicht.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Klik op </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Remove</t>
     </r>
     <r>
@@ -1006,9 +946,6 @@
   </si>
   <si>
     <t>Testcase 3</t>
-  </si>
-  <si>
-    <t>Vul in: FirstName, LastName, Email, Password, Status</t>
   </si>
   <si>
     <t>FirstName</t>
@@ -1250,12 +1187,183 @@
   </si>
   <si>
     <t>niets</t>
+  </si>
+  <si>
+    <t>order van images kan niet gesaved worden.</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Gebruik het zoekveld om te zoeken naar een hotel in Location</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verander de Hotel Name door "2!" toe te voegen. Klik op </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Vul in: FirstName, LastName, Email, Password, Status en Country</t>
+  </si>
+  <si>
+    <t>Vul in: FirstName, LastName, Email, Password, Status, Country</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Hyatt Regency Perth</t>
+  </si>
+  <si>
+    <t>Het is niet mogelijk op kamertype te zoeken. Op hotel zoeken is ook niet direct mogelijk. Rendezvous hotels bijvoorbeeld is niet searchable vanuit de front-end</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Klik op </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hotels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rooms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Gebruik het zoekveld om te zoeken naar &lt;Hotel&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Klik op </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delux Room</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> van &lt;Hotel&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verander de Room Type naar </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Studio Premier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Klik op </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Submit</t>
+    </r>
+  </si>
+  <si>
+    <t>Gebruik het zoekveld om te zoeken naar hotel &lt;Hotel&gt;</t>
+  </si>
+  <si>
+    <t>Het nieuwe hotel is niet meer zichtbaar in het overzicht.</t>
+  </si>
+  <si>
+    <t>Navigatie verloopt vlekkeloos, alle schermen gedefinieerd laden en tonen informatie zonder foutmeldingen.</t>
+  </si>
+  <si>
+    <t>Kan niet inloggen met nieuw gemaakte admin account in zowel front-end als back-end, accountgegevens gereset door mechanisme backend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="d/mm/yy\ h:mm;@"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1329,7 +1437,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1351,6 +1459,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,7 +1584,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1571,6 +1685,24 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1586,46 +1718,52 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2004,7 +2142,7 @@
   <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2032,7 +2170,7 @@
     </row>
     <row r="3" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>60</v>
@@ -2045,7 +2183,7 @@
     </row>
     <row r="4" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>62</v>
@@ -2055,7 +2193,7 @@
     </row>
     <row r="5" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>82</v>
@@ -2065,7 +2203,7 @@
     </row>
     <row r="6" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>86</v>
@@ -2075,7 +2213,7 @@
     </row>
     <row r="7" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>89</v>
@@ -2085,20 +2223,20 @@
     </row>
     <row r="8" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="10"/>
@@ -2123,8 +2261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2138,9 +2276,6 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
@@ -2156,6 +2291,9 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2166,29 +2304,29 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="46"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="44"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -2203,19 +2341,19 @@
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="44"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="38"/>
+      <c r="B14" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="44"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -2225,10 +2363,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -2238,55 +2376,57 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="44"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="50"/>
+      <c r="B17" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="52"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="38"/>
+      <c r="C18" s="44"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="44"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="53"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
@@ -2313,8 +2453,8 @@
         <v>28</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="51"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
@@ -2326,8 +2466,8 @@
       <c r="C26" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="51"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
@@ -2337,8 +2477,8 @@
         <v>30</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="51"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="36"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
@@ -2348,8 +2488,8 @@
         <v>31</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="51"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="36"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
@@ -2361,8 +2501,8 @@
       <c r="C29" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="51"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="36"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
@@ -2372,8 +2512,8 @@
         <v>49</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="51"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="36"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
@@ -2385,8 +2525,8 @@
       <c r="C31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="51"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="36"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
@@ -2396,8 +2536,8 @@
         <v>28</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="51"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="36"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
@@ -2409,8 +2549,8 @@
       <c r="C33" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="51"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="36"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
@@ -2420,8 +2560,8 @@
         <v>44</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="51"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="36"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
@@ -2431,8 +2571,8 @@
         <v>45</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="51"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="36"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
@@ -2444,8 +2584,8 @@
       <c r="C36" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="51"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="36"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
@@ -2455,8 +2595,8 @@
         <v>49</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="51"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="36"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
@@ -2468,8 +2608,8 @@
       <c r="C38" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="51"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="36"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
@@ -2479,8 +2619,8 @@
         <v>28</v>
       </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="51"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="36"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
@@ -2492,8 +2632,8 @@
       <c r="C40" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="51"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="36"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
@@ -2503,8 +2643,8 @@
         <v>49</v>
       </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="51"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="36"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
@@ -2516,8 +2656,8 @@
       <c r="C42" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="52"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="37"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="29" t="s">
@@ -2590,7 +2730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F177F6-B0AA-4958-B1AA-E3E9D2975351}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
+    <sheetView topLeftCell="A8" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2603,9 +2745,6 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
@@ -2621,6 +2760,9 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2631,52 +2773,54 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="46"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="44"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="47">
+        <v>43369.635416666664</v>
+      </c>
+      <c r="C12" s="48"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="44"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -2686,10 +2830,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -2699,55 +2843,57 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="44"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="44"/>
+      <c r="B17" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="52"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="38"/>
+      <c r="B18" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="44"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="44"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="53"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
@@ -2774,7 +2920,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2787,7 +2933,7 @@
       <c r="C26" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2798,7 +2944,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
@@ -2809,7 +2955,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2822,7 +2968,7 @@
       <c r="C29" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2833,7 +2979,7 @@
         <v>49</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2846,7 +2992,7 @@
       <c r="C31" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2857,7 +3003,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -2870,7 +3016,7 @@
       <c r="C33" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -2881,7 +3027,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -2892,7 +3038,7 @@
         <v>73</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
@@ -2905,7 +3051,7 @@
       <c r="C36" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="13"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -2916,7 +3062,7 @@
         <v>49</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2929,7 +3075,7 @@
       <c r="C38" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="13"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2940,7 +3086,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2953,7 +3099,7 @@
       <c r="C40" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="13"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2964,7 +3110,7 @@
         <v>49</v>
       </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2977,7 +3123,7 @@
       <c r="C42" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="20"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="21"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3033,9 +3179,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5A0929-A518-420D-9017-1859FEF61629}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3048,9 +3196,6 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
@@ -3061,6 +3206,9 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F4" s="2" t="s">
@@ -3072,56 +3220,58 @@
         <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="46"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="44"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="61">
+        <v>43369.621527777781</v>
+      </c>
+      <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="44"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -3131,10 +3281,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -3144,55 +3294,53 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="44"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="44"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="38"/>
+      <c r="C18" s="44"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="45"/>
+      <c r="B20" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="53"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
@@ -3219,7 +3367,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -3232,7 +3380,7 @@
       <c r="C26" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -3243,7 +3391,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3251,10 +3399,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -3262,12 +3410,12 @@
         <v>5</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="13"/>
+        <v>151</v>
+      </c>
+      <c r="D29" s="36"/>
       <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -3275,10 +3423,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -3286,12 +3434,12 @@
         <v>7</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="13"/>
+        <v>142</v>
+      </c>
+      <c r="D31" s="57"/>
       <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -3299,10 +3447,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -3310,10 +3458,10 @@
         <v>9</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -3324,7 +3472,7 @@
         <v>83</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -3332,10 +3480,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="D35" s="62"/>
       <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -3343,10 +3491,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3354,12 +3502,12 @@
         <v>13</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D37" s="13"/>
+        <v>148</v>
+      </c>
+      <c r="D37" s="36"/>
       <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3367,12 +3515,12 @@
         <v>14</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="13"/>
+        <v>150</v>
+      </c>
+      <c r="D38" s="40"/>
       <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3380,10 +3528,10 @@
         <v>15</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3391,12 +3539,12 @@
         <v>16</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="20"/>
+        <v>152</v>
+      </c>
+      <c r="D40" s="37"/>
       <c r="E40" s="21"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -3407,34 +3555,34 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -3443,6 +3591,14 @@
       </c>
       <c r="B48" s="28" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3476,10 +3632,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588354D7-3FD4-41B8-9670-1E3A3F3B35AE}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3517,56 +3673,58 @@
         <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="46"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="44"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="61">
+        <v>43369.604166666664</v>
+      </c>
+      <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="44"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -3576,10 +3734,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -3589,55 +3747,51 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="44"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="44"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="38"/>
+      <c r="B18" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="44"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="45"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
@@ -3664,7 +3818,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -3675,9 +3829,9 @@
         <v>87</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="13"/>
+        <v>154</v>
+      </c>
+      <c r="D26" s="36"/>
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -3688,7 +3842,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3696,10 +3850,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -3707,12 +3861,12 @@
         <v>5</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -3720,10 +3874,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -3734,7 +3888,7 @@
         <v>49</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -3742,12 +3896,12 @@
         <v>8</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="13"/>
+        <v>142</v>
+      </c>
+      <c r="D32" s="36"/>
       <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -3755,10 +3909,10 @@
         <v>9</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -3769,7 +3923,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -3780,7 +3934,7 @@
         <v>87</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -3788,10 +3942,10 @@
         <v>12</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -3799,10 +3953,10 @@
         <v>13</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
@@ -3810,12 +3964,12 @@
         <v>14</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="13"/>
+        <v>158</v>
+      </c>
+      <c r="D38" s="36"/>
       <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -3826,7 +3980,7 @@
         <v>49</v>
       </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -3834,12 +3988,12 @@
         <v>16</v>
       </c>
       <c r="B40" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="13"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -3850,7 +4004,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -3861,7 +4015,7 @@
         <v>87</v>
       </c>
       <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
+      <c r="D42" s="36"/>
       <c r="E42" s="18"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -3869,12 +4023,12 @@
         <v>19</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D43" s="13"/>
+        <v>159</v>
+      </c>
+      <c r="D43" s="36"/>
       <c r="E43" s="18"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -3885,7 +4039,7 @@
         <v>49</v>
       </c>
       <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
+      <c r="D44" s="36"/>
       <c r="E44" s="18"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3893,12 +4047,12 @@
         <v>21</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="20"/>
+        <v>152</v>
+      </c>
+      <c r="D45" s="37"/>
       <c r="E45" s="21"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -3909,34 +4063,34 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="31" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3945,6 +4099,14 @@
       </c>
       <c r="B53" s="28" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3984,7 +4146,7 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3998,9 +4160,6 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
@@ -4016,62 +4175,67 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="46"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="44"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="61">
+        <v>43369.677083333336</v>
+      </c>
+      <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="44"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -4081,10 +4245,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4094,55 +4258,55 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="44"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="55"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="38"/>
+      <c r="B18" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="44"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="53"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
@@ -4169,7 +4333,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4180,9 +4344,9 @@
         <v>90</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="13"/>
+        <v>113</v>
+      </c>
+      <c r="D26" s="36"/>
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -4193,7 +4357,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
@@ -4204,7 +4368,7 @@
         <v>91</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -4212,12 +4376,12 @@
         <v>5</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="13"/>
+        <v>102</v>
+      </c>
+      <c r="D29" s="36"/>
       <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -4228,7 +4392,7 @@
         <v>49</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -4236,12 +4400,12 @@
         <v>7</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="13"/>
+        <v>102</v>
+      </c>
+      <c r="D31" s="36"/>
       <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -4252,7 +4416,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -4260,12 +4424,12 @@
         <v>9</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="13"/>
+        <v>105</v>
+      </c>
+      <c r="D33" s="36"/>
       <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -4273,10 +4437,10 @@
         <v>10</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -4287,20 +4451,20 @@
         <v>73</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="18"/>
     </row>
-    <row r="36" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>12</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="13"/>
+        <v>106</v>
+      </c>
+      <c r="D36" s="36"/>
       <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -4311,7 +4475,7 @@
         <v>49</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
@@ -4319,12 +4483,12 @@
         <v>14</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="13"/>
+        <v>107</v>
+      </c>
+      <c r="D38" s="40"/>
       <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -4335,7 +4499,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -4343,12 +4507,12 @@
         <v>16</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="13"/>
+        <v>109</v>
+      </c>
+      <c r="D40" s="36"/>
       <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -4359,7 +4523,7 @@
         <v>49</v>
       </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -4367,12 +4531,12 @@
         <v>18</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="20"/>
+        <v>110</v>
+      </c>
+      <c r="D42" s="37"/>
       <c r="E42" s="21"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -4434,7 +4598,7 @@
         <v>101</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -4475,10 +4639,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97AE348-C7FD-409F-AA9E-356A4F09276E}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4492,9 +4656,6 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
@@ -4510,62 +4671,67 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="40"/>
+      <c r="B10" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="46"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="44"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="58">
+        <v>43369.583333333336</v>
+      </c>
+      <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="44"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -4575,10 +4741,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4588,55 +4754,55 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="44"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="55"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="38"/>
+      <c r="B18" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="44"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="45"/>
+      <c r="B20" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="53"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
@@ -4663,7 +4829,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4671,12 +4837,12 @@
         <v>2</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="13"/>
+        <v>114</v>
+      </c>
+      <c r="D26" s="36"/>
       <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -4687,7 +4853,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -4695,10 +4861,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -4706,12 +4872,12 @@
         <v>5</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="13"/>
+        <v>102</v>
+      </c>
+      <c r="D29" s="36"/>
       <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -4722,20 +4888,20 @@
         <v>49</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="18"/>
     </row>
-    <row r="31" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>7</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="13"/>
+        <v>102</v>
+      </c>
+      <c r="D31" s="36"/>
       <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -4743,12 +4909,12 @@
         <v>8</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="D32" s="36"/>
       <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -4759,7 +4925,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -4767,12 +4933,12 @@
         <v>9</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="13"/>
+        <v>124</v>
+      </c>
+      <c r="D34" s="36"/>
       <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -4780,10 +4946,10 @@
         <v>10</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -4791,23 +4957,23 @@
         <v>11</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+        <v>191</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="36"/>
       <c r="E36" s="18"/>
     </row>
-    <row r="37" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>12</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -4815,23 +4981,25 @@
         <v>13</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+        <v>192</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="36"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>14</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="D39" s="36"/>
       <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -4839,12 +5007,10 @@
         <v>15</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -4852,10 +5018,12 @@
         <v>16</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="36"/>
       <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -4863,12 +5031,10 @@
         <v>17</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="36"/>
       <c r="E42" s="18"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -4876,105 +5042,94 @@
         <v>18</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+        <v>192</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="36"/>
       <c r="E43" s="18"/>
     </row>
-    <row r="44" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="12">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="20">
         <v>19</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="18"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="20">
-        <v>20</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
+      <c r="B44" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="37"/>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="17"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="17"/>
+      <c r="A48" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="B51" s="26">
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B52" s="26">
-        <v>200</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B53" s="26">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" s="26">
-        <v>3</v>
-      </c>
+      <c r="A54" s="25"/>
+      <c r="B54" s="26"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
-      <c r="B56" s="28"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="13"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="28"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="13"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="13"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -5010,7 +5165,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5024,9 +5179,6 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
@@ -5042,62 +5194,67 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="40"/>
+      <c r="B10" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="46"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="44"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="59">
+        <v>43370.40625</v>
+      </c>
+      <c r="C12" s="60"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="38"/>
+      <c r="B13" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="44"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -5107,10 +5264,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -5121,57 +5278,61 @@
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D16" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="38"/>
+      <c r="E16" s="44"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="55"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="38"/>
+      <c r="B18" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="44"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="44"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="53"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="50"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>

--- a/Sessie sheet (testcases) - Back-end.xlsx
+++ b/Sessie sheet (testcases) - Back-end.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Casus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3831373C-0E14-489D-8750-9F55F37AB804}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9708BF-97E2-48E3-B624-859F01613398}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="199">
   <si>
     <t>Session sheet #</t>
   </si>
@@ -93,16 +93,8 @@
     <t>Onvoorzien:</t>
   </si>
   <si>
-    <t>Wat per toeval gevonden wordt, niet direct gerelateerd aan de test maar wat wel opgemerkt dient te worden.</t>
-  </si>
-  <si>
     <t>Opmerkingen/
 toelichting:</t>
-  </si>
-  <si>
-    <t>Acties en stappen die uitgevoerd dienen te worden
-Verwachte resultaat
-Werkelijke resultaat</t>
   </si>
   <si>
     <t>Sessie sheet #:</t>
@@ -1183,9 +1175,6 @@
     <t>&lt;link naar TC7&gt;</t>
   </si>
   <si>
-    <t>Front-end als back-end werkt en kan op ingelogd worden</t>
-  </si>
-  <si>
     <t>niets</t>
   </si>
   <si>
@@ -1355,6 +1344,24 @@
   </si>
   <si>
     <t>Kan niet inloggen met nieuw gemaakte admin account in zowel front-end als back-end, accountgegevens gereset door mechanisme backend</t>
+  </si>
+  <si>
+    <t>Geen bijzonderheden waargenomen.</t>
+  </si>
+  <si>
+    <t>Zowel front-end als back-end werkt en kan op ingelogd worden</t>
+  </si>
+  <si>
+    <t>Niet mogelijk om in te loggen met de nieuwe admin gegevens</t>
+  </si>
+  <si>
+    <t>Inlog niet mogelijk, dus log out niet gedaan</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -1362,9 +1369,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="d/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1436,19 +1443,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1584,7 +1598,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1608,9 +1622,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1626,145 +1637,158 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2141,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2164,82 +2188,93 @@
       <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="64" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="10" t="str">
-        <f>'TC1'!B20</f>
-        <v xml:space="preserve">Beschrijving van de bevinding en verwijzing naar de registratie van de bevinding </v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="10"/>
+        <v>164</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="10"/>
+        <v>165</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="10"/>
+        <v>166</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="10"/>
+        <v>167</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="10"/>
+      <c r="C9" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2262,7 +2297,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2297,25 +2332,25 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="46"/>
     </row>
@@ -2323,10 +2358,10 @@
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="44"/>
+      <c r="B11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -2341,360 +2376,362 @@
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="44"/>
+      <c r="B13" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="44"/>
+      <c r="B16" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="41"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="52"/>
+      <c r="B17" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="43"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="41"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="41"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="55"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="57"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>1</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>2</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>3</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>4</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>5</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>6</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>7</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>8</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>9</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>10</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>11</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>12</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="30"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>13</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="30"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>14</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
         <v>15</v>
       </c>
-      <c r="C20" s="53"/>
-    </row>
-    <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-    </row>
-    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="23" t="s">
+      <c r="B39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="C39" s="12"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="30"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>16</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="30"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>17</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="30"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>18</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="31"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="22">
         <v>1</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="36"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>2</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="36"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>3</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="36"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>4</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="36"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>5</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="36"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
-        <v>6</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="36"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
-        <v>7</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="36"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
-        <v>8</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="36"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
-        <v>9</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="36"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
-        <v>10</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="36"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>11</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="36"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
-        <v>12</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="36"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
-        <v>13</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="36"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
-        <v>14</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="36"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
-        <v>15</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="36"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
-        <v>16</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="36"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
-        <v>17</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="36"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="19">
-        <v>18</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="37"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="17"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="26" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="B49" s="24" t="s">
         <v>37</v>
-      </c>
-      <c r="B48" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2702,11 +2739,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
@@ -2715,6 +2747,11 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -2730,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F177F6-B0AA-4958-B1AA-E3E9D2975351}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2766,25 +2803,25 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="46"/>
     </row>
@@ -2792,10 +2829,10 @@
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="44"/>
+      <c r="B11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -2810,342 +2847,329 @@
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="44"/>
+      <c r="B13" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="44"/>
+      <c r="B16" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="41"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="52"/>
+      <c r="B17" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="43"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="41"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="41"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="41"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="57"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>1</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>2</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>3</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>4</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>5</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>6</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>7</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>8</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>9</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>10</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>11</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>12</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="30"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>13</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="E37" s="30"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>14</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
         <v>15</v>
       </c>
-      <c r="C20" s="53"/>
-    </row>
-    <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-    </row>
-    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="23" t="s">
+      <c r="B39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>1</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>2</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="C39" s="12"/>
+      <c r="E39" s="30"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>16</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="30"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>17</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="E41" s="30"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>18</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="31"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>3</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>4</v>
-      </c>
-      <c r="B28" s="13" t="s">
+    </row>
+    <row r="47" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>67</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>5</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
-        <v>6</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
-        <v>7</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
-        <v>8</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
-        <v>9</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
-        <v>10</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>11</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="18"/>
-    </row>
-    <row r="36" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
-        <v>12</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
-        <v>13</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
-        <v>14</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
-        <v>15</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
-        <v>16</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="18"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
-        <v>17</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="19">
-        <v>18</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="21"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="17"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3153,12 +3177,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -3166,6 +3184,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{5D9F56E6-0968-4F30-B6EB-219911D5CA1D}">
@@ -3181,8 +3205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5A0929-A518-420D-9017-1859FEF61629}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3201,14 +3225,14 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F4" s="2" t="s">
@@ -3217,25 +3241,25 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="46"/>
     </row>
@@ -3243,362 +3267,355 @@
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="44"/>
+      <c r="B11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="49">
         <v>43369.621527777781</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="44"/>
+      <c r="B13" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="44"/>
+      <c r="B16" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="41"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="44"/>
+      <c r="B18" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="41"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="55"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>1</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>2</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>3</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="E27" s="35"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>4</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>5</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>6</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>7</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="53"/>
-    </row>
-    <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-    </row>
-    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="24" t="s">
+      <c r="E31" s="37"/>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>8</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="37"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>1</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>2</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>3</v>
-      </c>
-      <c r="B27" s="13" t="s">
+      <c r="B33" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="E33" s="32"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>10</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>11</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="E35" s="60"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>12</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="E36" s="60"/>
+    </row>
+    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>13</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="32"/>
+    </row>
+    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>14</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="60"/>
+    </row>
+    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>15</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>16</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="33"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>4</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>5</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
-        <v>6</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
-        <v>7</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
-        <v>8</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
+      <c r="B43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
-        <v>10</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>11</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="18"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
-        <v>12</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
-        <v>13</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
-        <v>14</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
-        <v>15</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19">
-        <v>16</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="21"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="17"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>92</v>
+      <c r="B48" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>185</v>
+      <c r="A49" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3606,12 +3623,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -3619,6 +3630,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{C6C35E0C-7BDF-4ED2-ACD1-8D1997A8187E}">
@@ -3634,8 +3651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588354D7-3FD4-41B8-9670-1E3A3F3B35AE}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+    <sheetView topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3649,9 +3666,6 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
@@ -3667,28 +3681,31 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="46"/>
     </row>
@@ -3696,417 +3713,403 @@
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="44"/>
+      <c r="B11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="49">
         <v>43369.604166666664</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="44"/>
+      <c r="B13" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="44"/>
+      <c r="B16" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="41"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="41"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-    </row>
-    <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="41"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
+        <v>21</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="57"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>1</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="24" t="s">
+      <c r="C25" s="12"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>2</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>3</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>4</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>5</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>6</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>7</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>8</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>1</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>2</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="13" t="s">
+      <c r="B33" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>10</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>11</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>12</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="E36" s="30"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>13</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="E37" s="30"/>
+    </row>
+    <row r="38" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>14</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>15</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="E39" s="30"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>16</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>3</v>
-      </c>
-      <c r="B27" s="13" t="s">
+      <c r="C40" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="30"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>17</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="E41" s="30"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
+        <v>18</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="E42" s="30"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
+        <v>19</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="30"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
+        <v>20</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="E44" s="30"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>21</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="31"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>4</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>5</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
-        <v>6</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
-        <v>7</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
-        <v>8</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
-        <v>9</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
-        <v>10</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>11</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="18"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
-        <v>12</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
-        <v>13</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
-        <v>14</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="13" t="s">
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
-        <v>15</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
-        <v>16</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="18"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
-        <v>17</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
-        <v>18</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="18"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
-        <v>19</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="13" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="18"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="12">
-        <v>20</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="18"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="19">
-        <v>21</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="21"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="17"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>162</v>
+        <v>133</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="28" t="s">
-        <v>92</v>
+      <c r="B53" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>185</v>
+      <c r="A54" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4114,12 +4117,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -4127,6 +4124,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{7C18AF38-3401-4599-B170-8902010578B1}">
@@ -4146,7 +4149,7 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4181,25 +4184,25 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="46"/>
     </row>
@@ -4207,418 +4210,397 @@
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="44"/>
+      <c r="B11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="49">
         <v>43369.677083333336</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="44"/>
+      <c r="B13" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="44"/>
+      <c r="B16" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="41"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="41"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="41"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="57"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>1</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>2</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>3</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>4</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>5</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>6</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>7</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>8</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>9</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>10</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>11</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>12</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="30"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>13</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="E37" s="30"/>
+    </row>
+    <row r="38" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>14</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="34"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
         <v>15</v>
       </c>
-      <c r="C20" s="53"/>
-    </row>
-    <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-    </row>
-    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="23" t="s">
+      <c r="B39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="24" t="s">
+      <c r="C39" s="12"/>
+      <c r="E39" s="30"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>16</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="30"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>17</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="E41" s="30"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>18</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="31"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>1</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>2</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="B46" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>3</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="22">
         <v>4</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>5</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
-        <v>6</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
-        <v>7</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
-        <v>8</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
-        <v>9</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
-        <v>10</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>11</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="18"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
-        <v>12</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
-        <v>13</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
-        <v>14</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
-        <v>15</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
-        <v>16</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="18"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
-        <v>17</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="19">
-        <v>18</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="21"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="17"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="26" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="B50" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B51" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>179</v>
+      <c r="B52" s="22" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="27"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="24"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
+      <c r="A58" s="12"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -4626,6 +4608,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{F1A39055-5B8B-4FA1-BD45-6FC72FBEEC54}">
@@ -4639,10 +4627,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97AE348-C7FD-409F-AA9E-356A4F09276E}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4677,25 +4665,25 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="46"/>
     </row>
@@ -4703,445 +4691,412 @@
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="44"/>
+      <c r="B11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="50">
         <v>43369.583333333336</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="44"/>
+      <c r="B13" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="44"/>
+      <c r="B16" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="41"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="41"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="55"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>1</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>2</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>3</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>4</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>5</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>6</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>7</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>8</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>8</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>9</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>10</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="53"/>
-    </row>
-    <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
-    </row>
-    <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="23" t="s">
+      <c r="C35" s="12"/>
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>11</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="30"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>12</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="E37" s="30"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>13</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>14</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="30"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>15</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="24" t="s">
+      <c r="C40" s="12"/>
+      <c r="E40" s="30"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>16</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="30"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
+        <v>17</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="E42" s="30"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
+        <v>18</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="30"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="16">
+        <v>19</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="31"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>1</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>2</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="13" t="s">
+      <c r="B48" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="B49" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="24">
         <v>3</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>4</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>5</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
-        <v>6</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
-        <v>7</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
-        <v>8</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
-        <v>8</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
-        <v>9</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>10</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="18"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
-        <v>11</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
-        <v>12</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
-        <v>13</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
-        <v>14</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D39" s="36"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
-        <v>15</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="18"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
-        <v>16</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
-        <v>17</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="18"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
-        <v>18</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="18"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="20">
-        <v>19</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="21"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="17"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="B51" s="26">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B52" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B53" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
-      <c r="B55" s="28"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="13"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="13"/>
+      <c r="A55" s="12"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="12"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -5149,6 +5104,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{509EE8FD-F1D7-4B05-9132-06E8F12D537C}">
@@ -5165,7 +5126,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5200,25 +5161,25 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C10" s="46"/>
     </row>
@@ -5226,135 +5187,131 @@
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="44"/>
+      <c r="B11" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="51">
         <v>43370.40625</v>
       </c>
-      <c r="C12" s="60"/>
+      <c r="C12" s="52"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="44"/>
+      <c r="B13" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="44"/>
-      <c r="G16" s="3"/>
+        <v>172</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="41"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="41"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="55"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="50"/>
+        <v>21</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="57"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
+      <c r="A26" s="12"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
-  <mergeCells count="13">
+  <mergeCells count="12">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{FB70611E-067D-4070-8718-B9128E2C6116}">

--- a/Sessie sheet (testcases) - Back-end.xlsx
+++ b/Sessie sheet (testcases) - Back-end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Casus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9708BF-97E2-48E3-B624-859F01613398}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F12184-CF7E-4361-8757-8718B939A563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="203">
   <si>
     <t>Session sheet #</t>
   </si>
@@ -1140,24 +1140,6 @@
     <t>De naam van de customer is veranderd naar "NietPietje"</t>
   </si>
   <si>
-    <t>&lt;link naar TC1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;link naar TC2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;link naar TC3&gt;</t>
-  </si>
-  <si>
-    <t>&lt;link naar TC4&gt;</t>
-  </si>
-  <si>
-    <t>&lt;link naar TC5&gt;</t>
-  </si>
-  <si>
-    <t>&lt;link naar TC6&gt;</t>
-  </si>
-  <si>
     <t>Testcase 7</t>
   </si>
   <si>
@@ -1172,9 +1154,6 @@
     <t xml:space="preserve">Voor deze testcase is er gebruik gemaakt van exploratory testing. We verwachten dat er geen problemen optreden tijdens het navigeren door verschillende schermen heen. </t>
   </si>
   <si>
-    <t>&lt;link naar TC7&gt;</t>
-  </si>
-  <si>
     <t>niets</t>
   </si>
   <si>
@@ -1361,7 +1340,40 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>In progress</t>
+    <t>Getoond: Invalid login credentials</t>
+  </si>
+  <si>
+    <t>Uitgesloten dient te worden of het resetten van de admin accounts veroorzaakt wordt door de demo-omgeving of dat dit door een tekortkoming in het systeem veroorzaakt wordt.</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>Kan niet inloggen met nieuw gemaakte admin account in zowel front-end als back-end, accountgegevens gereset door mechanisme backend. Uitgesloten dient te worden of het resetten van de admin accounts veroorzaakt wordt door de demo-omgeving of dat dit door een tekortkoming in het systeem veroorzaakt wordt.</t>
+  </si>
+  <si>
+    <t>Geregistreerd issue #</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1455,6 +1467,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1598,7 +1616,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1619,9 +1637,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1679,9 +1694,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1709,37 +1721,61 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1757,39 +1793,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2163,22 +2180,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D9"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
     <col min="4" max="4" width="32.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2188,105 +2206,109 @@
       <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="E2" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="65"/>
+    </row>
+    <row r="4" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="65"/>
+    </row>
+    <row r="5" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="65">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="B6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="65"/>
+    </row>
+    <row r="7" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="65"/>
+    </row>
+    <row r="8" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="65"/>
+    </row>
+    <row r="9" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="9"/>
+      <c r="C9" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="65"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A8" location="'TC1'!A1" display="&lt;link naar TC6&gt;" xr:uid="{BA599AE9-42E3-46D5-8266-8E74715F5C50}"/>
-    <hyperlink ref="A7" location="'TC1'!A1" display="&lt;link naar TC5&gt;" xr:uid="{72A63254-2785-4A83-A80B-1AA3176D977D}"/>
-    <hyperlink ref="A6" location="'TC1'!A1" display="&lt;link naar TC4&gt;" xr:uid="{06578E55-115B-405B-8A1D-35CAACEFD5C0}"/>
-    <hyperlink ref="A5" location="'TC1'!A1" display="&lt;link naar TC3&gt;" xr:uid="{4ACDF511-1132-4276-AAD0-339975516F01}"/>
-    <hyperlink ref="A5:A8" location="'TC1'!A1" display="&lt;link naar Tab 1&gt;" xr:uid="{1AA77208-DB20-4157-A963-1B2CB8609591}"/>
-    <hyperlink ref="A4" location="'TC2'!A1" display="&lt;link naar TC2&gt;" xr:uid="{8E1A2DEF-E8A6-40AA-9A29-5DF3732360AC}"/>
-    <hyperlink ref="A3" location="'TC1'!A1" display="&lt;link naar TC1&gt;" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A9" location="'TC7'!A1" display="&lt;link naar TC7&gt;" xr:uid="{C10EC342-7993-4299-A3FB-8EB46613FA7B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2296,9 +2318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
-    </sheetView>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2339,20 +2359,20 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2367,10 +2387,10 @@
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="44">
         <v>43369.572916666664</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="45"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -2386,13 +2406,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C14" s="41"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -2402,10 +2422,10 @@
         <v>53</v>
       </c>
       <c r="C15" s="41"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -2421,10 +2441,10 @@
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="43"/>
+      <c r="B17" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="49"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2448,289 +2468,289 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="50"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="57"/>
+      <c r="B21" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="47"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>1</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="30"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>2</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="30"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>4</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="30"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>5</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>6</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="30"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>7</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>8</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="30"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>9</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>10</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="30"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>11</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="30"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>12</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>13</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="30"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>14</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="28"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>15</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="30"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>16</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="28"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>17</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="30"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="28"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
+      <c r="A42" s="14">
         <v>18</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="29"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="14"/>
+      <c r="B45" s="13"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="23" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2739,6 +2759,11 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
@@ -2747,11 +2772,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -2767,9 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F177F6-B0AA-4958-B1AA-E3E9D2975351}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
-    </sheetView>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2810,20 +2828,20 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -2838,10 +2856,10 @@
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="44">
         <v>43369.635416666664</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="45"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -2857,13 +2875,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C14" s="41"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -2873,10 +2891,10 @@
         <v>53</v>
       </c>
       <c r="C15" s="41"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -2892,10 +2910,10 @@
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="43"/>
+      <c r="B17" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="49"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2919,7 +2937,7 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="40" t="s">
@@ -2931,244 +2949,244 @@
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="57"/>
+      <c r="B21" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="47"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>1</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="E25" s="30"/>
+      <c r="C25" s="11"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>2</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="E27" s="30"/>
+      <c r="C27" s="11"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>4</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="E28" s="30"/>
+      <c r="C28" s="11"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>5</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>6</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="E30" s="30"/>
+      <c r="C30" s="11"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>7</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="30"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>8</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="E32" s="30"/>
+      <c r="C32" s="11"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>9</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="30"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>10</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="E34" s="30"/>
+      <c r="C34" s="11"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>11</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="E35" s="30"/>
+      <c r="C35" s="11"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>12</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="30"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>13</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="E37" s="30"/>
+      <c r="C37" s="11"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>14</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="30"/>
+      <c r="E38" s="28"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>15</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="E39" s="30"/>
+      <c r="C39" s="11"/>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>16</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="30"/>
+      <c r="E40" s="28"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>17</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="E41" s="30"/>
+      <c r="C41" s="11"/>
+      <c r="E41" s="28"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
+      <c r="A42" s="14">
         <v>18</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="31"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="29"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="14"/>
+      <c r="B45" s="13"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="23" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3177,6 +3195,12 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -3184,12 +3208,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{5D9F56E6-0968-4F30-B6EB-219911D5CA1D}">
@@ -3205,8 +3223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5A0929-A518-420D-9017-1859FEF61629}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3225,14 +3243,14 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F4" s="2" t="s">
@@ -3248,20 +3266,20 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -3276,7 +3294,7 @@
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="55">
         <v>43369.621527777781</v>
       </c>
       <c r="C12" s="41"/>
@@ -3295,13 +3313,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C14" s="41"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -3311,10 +3329,10 @@
         <v>53</v>
       </c>
       <c r="C15" s="41"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -3330,8 +3348,8 @@
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3353,269 +3371,273 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" s="55"/>
+      <c r="B20" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="50"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="47"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>1</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="E25" s="30"/>
+      <c r="C25" s="11"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>2</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="E27" s="35"/>
+      <c r="C27" s="11"/>
+      <c r="E27" s="33"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>4</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="E28" s="30"/>
+      <c r="B28" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>5</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>6</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="E30" s="30"/>
+      <c r="C30" s="11"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>7</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>140</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E31" s="37"/>
+        <v>188</v>
+      </c>
+      <c r="E31" s="35"/>
     </row>
     <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>8</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="12"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E32" s="37"/>
+        <v>189</v>
+      </c>
+      <c r="E32" s="35"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>9</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="E33" s="32"/>
+      <c r="C33" s="11"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>10</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="E34" s="32"/>
+      <c r="C34" s="11"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>11</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="E35" s="60"/>
+      <c r="C35" s="11"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>12</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="E36" s="60"/>
+      <c r="C36" s="11"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>13</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="32"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>14</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="60"/>
+      <c r="E38" s="28"/>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>15</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="E39" s="32"/>
+      <c r="C39" s="11"/>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15">
+      <c r="A40" s="14">
         <v>16</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="33"/>
+      <c r="D40" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="28"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="14"/>
+      <c r="B43" s="13"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="21" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="21" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="21" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>182</v>
+      <c r="A49" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3623,6 +3645,12 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -3630,20 +3658,17 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{C6C35E0C-7BDF-4ED2-ACD1-8D1997A8187E}">
       <formula1>$F$1:$F$4</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B46" r:id="rId1" xr:uid="{60C331D8-37AB-449D-8176-473E836DD6C1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3694,20 +3719,20 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -3722,7 +3747,7 @@
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="55">
         <v>43369.604166666664</v>
       </c>
       <c r="C12" s="41"/>
@@ -3741,13 +3766,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C14" s="41"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -3757,10 +3782,10 @@
         <v>53</v>
       </c>
       <c r="C15" s="41"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -3776,8 +3801,8 @@
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3799,7 +3824,7 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="40" t="s">
@@ -3811,272 +3836,272 @@
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="57"/>
+      <c r="B21" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="47"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>1</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="E25" s="30"/>
+      <c r="C25" s="11"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>2</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="E27" s="30"/>
+      <c r="C27" s="11"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>4</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="E28" s="30"/>
+      <c r="B28" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>5</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>6</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="E30" s="30"/>
+      <c r="C30" s="11"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>7</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="E31" s="30"/>
+      <c r="C31" s="11"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>8</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="30"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>9</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="E33" s="30"/>
+      <c r="C33" s="11"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>10</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="E34" s="30"/>
+      <c r="C34" s="11"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>11</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="E35" s="30"/>
+      <c r="C35" s="11"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>12</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="E36" s="30"/>
+      <c r="C36" s="11"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>13</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="E37" s="30"/>
+      <c r="C37" s="11"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>14</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E38" s="30"/>
+      <c r="E38" s="28"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>15</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="E39" s="30"/>
+      <c r="C39" s="11"/>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>16</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E40" s="30"/>
+      <c r="E40" s="28"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>17</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="E41" s="30"/>
+      <c r="C41" s="11"/>
+      <c r="E41" s="28"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>18</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="E42" s="30"/>
+      <c r="C42" s="11"/>
+      <c r="E42" s="28"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <v>19</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E43" s="30"/>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="11">
+      <c r="A44" s="10">
         <v>20</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="E44" s="30"/>
+      <c r="C44" s="11"/>
+      <c r="E44" s="28"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
+      <c r="A45" s="14">
         <v>21</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="31"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="29"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="14"/>
+      <c r="B48" s="13"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="21" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4084,7 +4109,7 @@
       <c r="A51" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="25" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4092,24 +4117,24 @@
       <c r="A52" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="21" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="21" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>182</v>
+      <c r="A54" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4117,6 +4142,12 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -4124,12 +4155,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{7C18AF38-3401-4599-B170-8902010578B1}">
@@ -4191,20 +4216,20 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -4219,7 +4244,7 @@
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="55">
         <v>43369.677083333336</v>
       </c>
       <c r="C12" s="41"/>
@@ -4238,13 +4263,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C14" s="41"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -4254,10 +4279,10 @@
         <v>53</v>
       </c>
       <c r="C15" s="41"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -4273,8 +4298,8 @@
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4296,7 +4321,7 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="40" t="s">
@@ -4308,299 +4333,305 @@
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="57"/>
+      <c r="B21" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="47"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>1</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="E25" s="30"/>
+      <c r="C25" s="11"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>2</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="E27" s="30"/>
+      <c r="C27" s="11"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>4</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="E28" s="30"/>
+      <c r="C28" s="11"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>5</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>6</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="E30" s="30"/>
+      <c r="C30" s="11"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>7</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="30"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>8</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="E32" s="30"/>
+      <c r="C32" s="11"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>9</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="30"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>10</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="E34" s="30"/>
+      <c r="C34" s="11"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>11</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="E35" s="30"/>
+      <c r="C35" s="11"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>12</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C36" s="12" t="s">
+      <c r="B36" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="30"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>13</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="E37" s="30"/>
+      <c r="C37" s="11"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>14</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="12" t="s">
+      <c r="B38" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="34"/>
+      <c r="E38" s="32"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>15</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="E39" s="30"/>
+      <c r="C39" s="11"/>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>16</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="30"/>
+      <c r="E40" s="28"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>17</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="E41" s="30"/>
+      <c r="C41" s="11"/>
+      <c r="E41" s="28"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
+      <c r="A42" s="14">
         <v>18</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C42" s="16" t="s">
+      <c r="B42" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="31"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="29"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="14"/>
+      <c r="B45" s="13"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="21" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="22" t="s">
-        <v>176</v>
+      <c r="B52" s="21" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="23"/>
-      <c r="B53" s="24"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="23"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
+      <c r="A58" s="11"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -4608,12 +4639,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{F1A39055-5B8B-4FA1-BD45-6FC72FBEEC54}">
@@ -4672,20 +4697,20 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -4700,7 +4725,7 @@
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="56">
         <v>43369.583333333336</v>
       </c>
       <c r="C12" s="41"/>
@@ -4719,13 +4744,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C14" s="41"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -4735,10 +4760,10 @@
         <v>53</v>
       </c>
       <c r="C15" s="41"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -4754,8 +4779,8 @@
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4777,326 +4802,332 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="55"/>
+      <c r="B20" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="50"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>1</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="E25" s="30"/>
+      <c r="C25" s="11"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>2</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="E27" s="30"/>
+      <c r="C27" s="11"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>4</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="E28" s="30"/>
+      <c r="C28" s="11"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>5</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>6</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="E30" s="30"/>
+      <c r="C30" s="11"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>7</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="30"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>8</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="30"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>8</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="E33" s="30"/>
+      <c r="C33" s="11"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>9</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="B34" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="30"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>10</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="E35" s="30"/>
+      <c r="B35" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>11</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" s="12" t="s">
+      <c r="B36" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="30"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>12</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="E37" s="30"/>
+      <c r="C37" s="11"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>13</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C38" s="12" t="s">
+      <c r="B38" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="30"/>
+      <c r="E38" s="28"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>14</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="30"/>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>15</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="E40" s="30"/>
+      <c r="C40" s="11"/>
+      <c r="E40" s="28"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>16</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="30"/>
+      <c r="E41" s="28"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>17</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="E42" s="30"/>
+      <c r="C42" s="11"/>
+      <c r="E42" s="28"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <v>18</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E43" s="30"/>
+      <c r="B43" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="16">
+      <c r="A44" s="15">
         <v>19</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="31"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="29"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="14"/>
+      <c r="B47" s="13"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="21" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="21" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="22" t="s">
-        <v>183</v>
+      <c r="B50" s="21" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51" s="21">
         <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B53" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
+      <c r="A55" s="11"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
+      <c r="A58" s="11"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -5104,12 +5135,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{509EE8FD-F1D7-4B05-9132-06E8F12D537C}">
@@ -5125,9 +5150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C439F92A-287F-4A20-85BD-CC7CEF70C006}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
-    </sheetView>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5164,24 +5187,24 @@
         <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="46"/>
+      <c r="B10" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -5196,17 +5219,17 @@
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="57">
         <v>43370.40625</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="58"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="53" t="s">
-        <v>171</v>
+      <c r="B13" s="59" t="s">
+        <v>165</v>
       </c>
       <c r="C13" s="41"/>
     </row>
@@ -5215,13 +5238,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C14" s="41"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -5231,27 +5254,27 @@
         <v>53</v>
       </c>
       <c r="C15" s="41"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="36"/>
+        <v>166</v>
+      </c>
+      <c r="C16" s="34"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5275,43 +5298,43 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="50"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="57"/>
+      <c r="B21" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="47"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{FB70611E-067D-4070-8718-B9128E2C6116}">

--- a/Sessie sheet (testcases) - Back-end.xlsx
+++ b/Sessie sheet (testcases) - Back-end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Casus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F12184-CF7E-4361-8757-8718B939A563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1625CEA5-00B0-4CC6-832D-264306E3C17A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,13 +21,14 @@
     <sheet name="TC5" sheetId="19" r:id="rId6"/>
     <sheet name="TC6" sheetId="20" r:id="rId7"/>
     <sheet name="TC7" sheetId="22" r:id="rId8"/>
+    <sheet name="TC8" sheetId="23" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="210">
   <si>
     <t>Session sheet #</t>
   </si>
@@ -1374,6 +1375,29 @@
   </si>
   <si>
     <t>Geregistreerd issue #</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>Als een admin
+ Wil ik een auto settings kunnen aanpassen en zien in de front-end
+ Zodat mijn klanten altijd de recenste data te zien krijgen</t>
+  </si>
+  <si>
+    <t>https://www.phptravels.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voor deze testcase gaan we een happy-flow scenario aflopen. </t>
+  </si>
+  <si>
+    <t>Testcase 8</t>
+  </si>
+  <si>
+    <t>De tet zou uitgevoerd worden op vrijdag 28 september 2018. Wegens de onverwachtse deployment, was het niet mogelijk om in te loggen in de back-end en kon deze test niet uitgevoerd worden.</t>
+  </si>
+  <si>
+    <t>Not executed</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1499,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1497,6 +1521,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,7 +1646,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1730,15 +1760,46 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1751,19 +1812,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1772,18 +1830,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1793,20 +1839,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2180,10 +2228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2214,99 +2262,114 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="66" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="41" t="s">
         <v>190</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="65"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>195</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="41" t="s">
         <v>190</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="65"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>196</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="43" t="s">
         <v>193</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="44">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>197</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="41" t="s">
         <v>190</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="65"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="66" t="s">
         <v>198</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="42" t="s">
         <v>190</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="65"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="66" t="s">
         <v>199</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="41" t="s">
         <v>190</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="65"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="66" t="s">
         <v>200</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="41" t="s">
         <v>190</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="65"/>
+      <c r="E9" s="44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2359,56 +2422,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="54"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="55">
         <v>43369.572916666664</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="56"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="48"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="41"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -2418,10 +2481,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -2431,59 +2494,59 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="48"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="50"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="48"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="41"/>
+      <c r="C19" s="48"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="51"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="46"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
@@ -2759,11 +2822,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
@@ -2772,6 +2830,11 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -2828,56 +2891,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="54"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="55">
         <v>43369.635416666664</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="56"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="48"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="41"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -2887,10 +2950,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -2900,59 +2963,59 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="48"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="50"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="48"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="41"/>
+      <c r="C19" s="48"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="48"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="46"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
@@ -3195,12 +3258,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -3208,6 +3265,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{5D9F56E6-0968-4F30-B6EB-219911D5CA1D}">
@@ -3223,7 +3286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5A0929-A518-420D-9017-1859FEF61629}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
@@ -3266,56 +3329,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="54"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="57">
         <v>43369.621527777781</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="48"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="48"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="41"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -3325,10 +3388,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -3338,55 +3401,55 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="48"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="48"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="51"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="46"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
@@ -3612,7 +3675,7 @@
       <c r="A46" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="40" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3645,12 +3708,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -3658,6 +3715,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{C6C35E0C-7BDF-4ED2-ACD1-8D1997A8187E}">
@@ -3676,7 +3739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588354D7-3FD4-41B8-9670-1E3A3F3B35AE}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
@@ -3719,56 +3782,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="54"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="57">
         <v>43369.604166666664</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="48"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="48"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="41"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -3778,10 +3841,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -3791,55 +3854,55 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="48"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="48"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="48"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="46"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
@@ -4142,12 +4205,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -4155,6 +4212,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{7C18AF38-3401-4599-B170-8902010578B1}">
@@ -4216,56 +4279,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="54"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="57">
         <v>43369.677083333336</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="48"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="48"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="41"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -4275,10 +4338,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -4288,55 +4351,55 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="48"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="48"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="48"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="46"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
@@ -4626,12 +4689,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -4639,6 +4696,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{F1A39055-5B8B-4FA1-BD45-6FC72FBEEC54}">
@@ -4697,56 +4760,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="54"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="60">
         <v>43369.583333333336</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="48"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="48"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="41"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -4756,10 +4819,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -4769,53 +4832,53 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="48"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="48"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="51"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
     </row>
     <row r="24" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
@@ -5122,12 +5185,6 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
@@ -5135,6 +5192,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{509EE8FD-F1D7-4B05-9132-06E8F12D537C}">
@@ -5191,56 +5254,56 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="54"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="63">
         <v>43370.40625</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="64"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="48"/>
     </row>
     <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="41"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -5250,10 +5313,10 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -5273,47 +5336,47 @@
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="48"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="41"/>
+      <c r="C19" s="48"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="51"/>
     </row>
     <row r="21" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="46"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
@@ -5323,18 +5386,18 @@
     <protectedRange sqref="D14:G15" name="Range1_2"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{FB70611E-067D-4070-8718-B9128E2C6116}">
@@ -5347,4 +5410,196 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDB19BA-D7EF-4492-9D84-9968CD77C20A}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="3" width="35.5546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+    </row>
+    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="48"/>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="48"/>
+    </row>
+    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="46"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="D14:G15" name="Range1_2"/>
+  </protectedRanges>
+  <mergeCells count="12">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 C18" xr:uid="{67FC62A2-53B7-4F4E-8760-CC811B9027DD}">
+      <formula1>$F$1:$F$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{68E44782-5C8E-4062-8EC1-1981AB505A66}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>